--- a/mainWidget/mainWidget/src/database/防隔热材料.xlsx
+++ b/mainWidget/mainWidget/src/database/防隔热材料.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSProject\gfapp_new\gfapp\mainWidget\mainWidget\src\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A12B11-CDDF-4A12-AFC2-9BC33C748E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD6C16E-6128-4EB4-B733-7083F8202910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -943,7 +943,6 @@
         <v>0.3</v>
       </c>
       <c r="G2" s="9">
-        <f t="shared" ref="G2:G13" si="0">INT(H2/1.5)</f>
         <v>60</v>
       </c>
       <c r="H2" s="10">
@@ -976,7 +975,6 @@
         <v>0.25</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H3" s="10">
@@ -1009,7 +1007,6 @@
         <v>0.17</v>
       </c>
       <c r="G4" s="9">
-        <f t="shared" si="0"/>
         <v>133</v>
       </c>
       <c r="H4" s="10">
@@ -1042,7 +1039,6 @@
         <v>0.16</v>
       </c>
       <c r="G5" s="9">
-        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="H5" s="10">
@@ -1075,7 +1071,6 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" si="0"/>
         <v>233</v>
       </c>
       <c r="H6" s="10">
@@ -1108,7 +1103,6 @@
         <v>0.15</v>
       </c>
       <c r="G7" s="9">
-        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="H7" s="10">
@@ -1141,7 +1135,6 @@
         <v>0.25</v>
       </c>
       <c r="G8" s="9">
-        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="H8" s="10">
@@ -1174,7 +1167,6 @@
         <v>0.45</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H9" s="10">
@@ -1207,7 +1199,6 @@
         <v>0.45</v>
       </c>
       <c r="G10" s="9">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H10" s="10">
@@ -1240,8 +1231,7 @@
         <v>0.45</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H11" s="10">
         <v>6</v>
@@ -1273,7 +1263,6 @@
         <v>0.25</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H12" s="10">
@@ -1306,7 +1295,6 @@
         <v>0.2</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H13" s="10">
